--- a/Code/Results/Cases/Case_8_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705742</v>
+        <v>3.457262170408171</v>
       </c>
       <c r="C2">
-        <v>1.104745911581944</v>
+        <v>1.007702210158641</v>
       </c>
       <c r="D2">
-        <v>0.3278482989888687</v>
+        <v>0.3492156199738474</v>
       </c>
       <c r="E2">
-        <v>1.498654169906317</v>
+        <v>1.343180230842464</v>
       </c>
       <c r="F2">
-        <v>6.635873520255558</v>
+        <v>6.463794665469322</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231291205</v>
+        <v>0.0007918837209675011</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009995295743722019</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002670933310996659</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289508</v>
+        <v>2.997853015548628</v>
       </c>
       <c r="C3">
-        <v>0.9385230912519091</v>
+        <v>0.869853693225707</v>
       </c>
       <c r="D3">
-        <v>0.2856247266611547</v>
+        <v>0.3064966316520383</v>
       </c>
       <c r="E3">
-        <v>1.26642903220683</v>
+        <v>1.155751310872887</v>
       </c>
       <c r="F3">
-        <v>5.740628530079618</v>
+        <v>5.654258087503649</v>
       </c>
       <c r="G3">
-        <v>0.000757803057901766</v>
+        <v>0.0007995267261627653</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00566132105441941</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006838291904367466</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156692</v>
+        <v>2.717878933285135</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115581</v>
+        <v>0.7870470786523356</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726882</v>
+        <v>0.2802437474734631</v>
       </c>
       <c r="E4">
-        <v>1.130126361199331</v>
+        <v>1.042418103720038</v>
       </c>
       <c r="F4">
-        <v>5.211660616999353</v>
+        <v>5.159655295851422</v>
       </c>
       <c r="G4">
-        <v>0.0007665192320742595</v>
+        <v>0.00080432863316101</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003562661497822361</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004342247631967666</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569776</v>
+        <v>2.604150420224698</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>0.7552167163809997</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613104</v>
+        <v>0.2683125171909211</v>
       </c>
       <c r="E5">
-        <v>1.075863128695488</v>
+        <v>0.9965441341777392</v>
       </c>
       <c r="F5">
-        <v>5.000427111763315</v>
+        <v>4.944718871251297</v>
       </c>
       <c r="G5">
-        <v>0.0007700955535800399</v>
+        <v>0.0008063365970838446</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00283109922356406</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000622890166188661</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573673</v>
+        <v>2.585207879043878</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7518079961090791</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691385</v>
+        <v>0.2648516623235935</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>0.9888719871438241</v>
       </c>
       <c r="F6">
-        <v>4.965589858726418</v>
+        <v>4.892255946361189</v>
       </c>
       <c r="G6">
-        <v>0.0007706910880035404</v>
+        <v>0.0008066988388415279</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002711539273524188</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007586302123687716</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991803129</v>
+        <v>2.716100113317282</v>
       </c>
       <c r="C7">
-        <v>0.8396532948888478</v>
+        <v>0.7916813407236987</v>
       </c>
       <c r="D7">
-        <v>0.2606352797066194</v>
+        <v>0.2760110113271139</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.041580167724106</v>
       </c>
       <c r="F7">
-        <v>5.208795406155929</v>
+        <v>5.110605349627804</v>
       </c>
       <c r="G7">
-        <v>0.0007665673549488928</v>
+        <v>0.0008044293528601984</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00353482695453966</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006621355425160402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6675410122877</v>
+        <v>3.297930760598206</v>
       </c>
       <c r="C8">
-        <v>1.046543339692192</v>
+        <v>0.9664754913100921</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852933</v>
+        <v>0.3289524093292329</v>
       </c>
       <c r="E8">
-        <v>1.41708081146524</v>
+        <v>1.277802295241244</v>
       </c>
       <c r="F8">
-        <v>6.322315476670298</v>
+        <v>6.121670233424283</v>
       </c>
       <c r="G8">
-        <v>0.0007485629914414371</v>
+        <v>0.0007945947571169861</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00834023203055928</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001998973943032389</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611295</v>
+        <v>4.461276162754871</v>
       </c>
       <c r="C9">
-        <v>1.491766529190727</v>
+        <v>1.317628976875312</v>
       </c>
       <c r="D9">
-        <v>0.4269393464070106</v>
+        <v>0.4409129175473083</v>
       </c>
       <c r="E9">
-        <v>2.048269869643008</v>
+        <v>1.758791490145597</v>
       </c>
       <c r="F9">
-        <v>8.719465186564719</v>
+        <v>8.221729476999883</v>
       </c>
       <c r="G9">
-        <v>0.0007133136491433303</v>
+        <v>0.0007759650060087116</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02293966575955908</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01318788530029646</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928628</v>
+        <v>5.332556541617578</v>
       </c>
       <c r="C10">
-        <v>1.861408775469329</v>
+        <v>1.589096750276838</v>
       </c>
       <c r="D10">
-        <v>0.5222620816065842</v>
+        <v>0.5003877811189454</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.021280822810638</v>
       </c>
       <c r="F10">
-        <v>10.7001295017497</v>
+        <v>9.52940342855976</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722787164</v>
+        <v>0.0007632755018147897</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03654587955837574</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02786243332301552</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>5.696287717332439</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>1.68929629314573</v>
       </c>
       <c r="D11">
-        <v>0.5697417279156696</v>
+        <v>0.3475534396946358</v>
       </c>
       <c r="E11">
-        <v>2.856771504377136</v>
+        <v>1.319623735495057</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>7.984121445527933</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843875903</v>
+        <v>0.0007625219121048961</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05102710592101189</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02986244529849014</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152713948</v>
+        <v>5.821453138132654</v>
       </c>
       <c r="C12">
-        <v>2.117427780801279</v>
+        <v>1.71081905899149</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268582</v>
+        <v>0.2378295168972926</v>
       </c>
       <c r="E12">
-        <v>2.964870090642748</v>
+        <v>0.8095450099342685</v>
       </c>
       <c r="F12">
-        <v>12.06264309303924</v>
+        <v>6.621540193137264</v>
       </c>
       <c r="G12">
-        <v>0.0006691567471939022</v>
+        <v>0.0007639042150792652</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08537059510579326</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02834500312373667</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881241</v>
+        <v>5.769062860697261</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>1.681431827745541</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.1489218976295632</v>
       </c>
       <c r="E13">
-        <v>2.941323476956214</v>
+        <v>0.4192333535295205</v>
       </c>
       <c r="F13">
-        <v>11.97905445325648</v>
+        <v>5.257492853800528</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212943329</v>
+        <v>0.0007670939994285801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1363447470369579</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02441139653021018</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758336053</v>
+        <v>5.653258874752623</v>
       </c>
       <c r="C14">
-        <v>2.05084853859745</v>
+        <v>1.640501665964337</v>
       </c>
       <c r="D14">
-        <v>0.571268457492522</v>
+        <v>0.09914364752189897</v>
       </c>
       <c r="E14">
-        <v>2.86554799980604</v>
+        <v>0.2200208786317432</v>
       </c>
       <c r="F14">
-        <v>11.70919345391218</v>
+        <v>4.320288365004302</v>
       </c>
       <c r="G14">
-        <v>0.0006736252978828791</v>
+        <v>0.0007700778533965794</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.18241339872894</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02096641771609153</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.00074807254731</v>
+        <v>5.587027398541977</v>
       </c>
       <c r="C15">
-        <v>2.020133084844645</v>
+        <v>1.621696695691526</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194481</v>
+        <v>0.08790478637317278</v>
       </c>
       <c r="E15">
-        <v>2.819877994524219</v>
+        <v>0.180148105521539</v>
       </c>
       <c r="F15">
-        <v>11.54591643366126</v>
+        <v>4.065077586257132</v>
       </c>
       <c r="G15">
-        <v>0.000675703335704542</v>
+        <v>0.0007712711082461959</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1938160907104987</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01972158660848322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654653986</v>
+        <v>5.224085017559617</v>
       </c>
       <c r="C16">
-        <v>1.849782383921365</v>
+        <v>1.516492032032318</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.08526566423042681</v>
       </c>
       <c r="E16">
-        <v>2.568268379124916</v>
+        <v>0.1700411051112454</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>3.828971836814645</v>
       </c>
       <c r="G16">
-        <v>0.0006874278300959101</v>
+        <v>0.00077591099244641</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1772398316277872</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01491254195543057</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651677</v>
+        <v>5.007352928785792</v>
       </c>
       <c r="C17">
-        <v>1.74967925505041</v>
+        <v>1.457340512143503</v>
       </c>
       <c r="D17">
-        <v>0.4933995490309258</v>
+        <v>0.1063005318635462</v>
       </c>
       <c r="E17">
-        <v>2.421703187807424</v>
+        <v>0.2527426306022065</v>
       </c>
       <c r="F17">
-        <v>10.10289414216493</v>
+        <v>4.119620197415884</v>
       </c>
       <c r="G17">
-        <v>0.0006944852374395349</v>
+        <v>0.0007779609381707517</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1380845818779335</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01298819220147251</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>4.891181072940014</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.426784906721878</v>
       </c>
       <c r="D18">
-        <v>0.4788997599790434</v>
+        <v>0.1630917184647416</v>
       </c>
       <c r="E18">
-        <v>2.339843746202689</v>
+        <v>0.488672800946965</v>
       </c>
       <c r="F18">
-        <v>9.802041018714419</v>
+        <v>4.989782952390868</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257280441</v>
+        <v>0.0007777175351106891</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08624958060428156</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0128610273449894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562121311</v>
+        <v>4.865410637195282</v>
       </c>
       <c r="C19">
-        <v>1.674689419313893</v>
+        <v>1.433989826580387</v>
       </c>
       <c r="D19">
-        <v>0.4740495448535285</v>
+        <v>0.2585924094822332</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>0.9316599478342198</v>
       </c>
       <c r="F19">
-        <v>9.701283292199292</v>
+        <v>6.311405617291229</v>
       </c>
       <c r="G19">
-        <v>0.0006998598190865405</v>
+        <v>0.0007753471943131185</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04486607482094485</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01491509726212481</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428692</v>
+        <v>5.100185226391659</v>
       </c>
       <c r="C20">
-        <v>1.760186838715697</v>
+        <v>1.532472938516833</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601022</v>
+        <v>0.4702190910753643</v>
       </c>
       <c r="E20">
-        <v>2.437044104630658</v>
+        <v>1.945769640609583</v>
       </c>
       <c r="F20">
-        <v>10.15912097007671</v>
+        <v>9.0203272447026</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734403594</v>
+        <v>0.0007668416119520997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03244554102579755</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02379408360536761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364637</v>
+        <v>5.784892976581773</v>
       </c>
       <c r="C21">
-        <v>2.065688090290337</v>
+        <v>1.750257957264921</v>
       </c>
       <c r="D21">
-        <v>0.5751101848300664</v>
+        <v>0.5534414014092022</v>
       </c>
       <c r="E21">
-        <v>2.887646484235404</v>
+        <v>2.318371252717682</v>
       </c>
       <c r="F21">
-        <v>11.78802886964667</v>
+        <v>10.45960704905036</v>
       </c>
       <c r="G21">
-        <v>0.0006726251112156297</v>
+        <v>0.000756201365715177</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0464444912688986</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03888522512563775</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886698745</v>
+        <v>6.238143054835405</v>
       </c>
       <c r="C22">
-        <v>2.283282165834066</v>
+        <v>1.888477988335353</v>
       </c>
       <c r="D22">
-        <v>0.6314726412728078</v>
+        <v>0.6034973891750326</v>
       </c>
       <c r="E22">
-        <v>3.214297175114268</v>
+        <v>2.513470465521181</v>
       </c>
       <c r="F22">
-        <v>12.94011826465407</v>
+        <v>11.35561038052936</v>
       </c>
       <c r="G22">
-        <v>0.0006582287118990811</v>
+        <v>0.0007494717359220136</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05622256578920748</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05032041316143676</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901463</v>
+        <v>5.996341369730999</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>1.808243448853432</v>
       </c>
       <c r="D23">
-        <v>0.600872616121336</v>
+        <v>0.5820632899846885</v>
       </c>
       <c r="E23">
-        <v>3.03637255775223</v>
+        <v>2.409407682906746</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>10.93547678253219</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291808603</v>
+        <v>0.0007529736297253577</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05097258498324031</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04393539907997379</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224034</v>
+        <v>5.093396454990398</v>
       </c>
       <c r="C24">
-        <v>1.755432162945965</v>
+        <v>1.522929633599688</v>
       </c>
       <c r="D24">
-        <v>0.4948847683158704</v>
+        <v>0.494095960497134</v>
       </c>
       <c r="E24">
-        <v>2.430101090143168</v>
+        <v>2.024357664267967</v>
       </c>
       <c r="F24">
-        <v>10.13367983991688</v>
+        <v>9.282577626360364</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912558396</v>
+        <v>0.0007664096614360714</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03328234609949288</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02388743652415215</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.76892253653881</v>
+        <v>4.142656613778001</v>
       </c>
       <c r="C25">
-        <v>1.365482018976479</v>
+        <v>1.229542174013773</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678624</v>
+        <v>0.4026513398619613</v>
       </c>
       <c r="E25">
-        <v>1.867542477264166</v>
+        <v>1.625711697670212</v>
       </c>
       <c r="F25">
-        <v>8.040232194133921</v>
+        <v>7.560761790821061</v>
       </c>
       <c r="G25">
-        <v>0.0007229166982805069</v>
+        <v>0.0007810655889403182</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01826779157226266</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009293847328576632</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_8_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457262170408171</v>
+        <v>0.9561215347078189</v>
       </c>
       <c r="C2">
-        <v>1.007702210158641</v>
+        <v>0.1585645470908332</v>
       </c>
       <c r="D2">
-        <v>0.3492156199738474</v>
+        <v>0.006224736383794616</v>
       </c>
       <c r="E2">
-        <v>1.343180230842464</v>
+        <v>0.0126247469443479</v>
       </c>
       <c r="F2">
-        <v>6.463794665469322</v>
+        <v>3.182624166320224</v>
       </c>
       <c r="G2">
-        <v>0.0007918837209675011</v>
+        <v>0.0008659906903234131</v>
       </c>
       <c r="H2">
-        <v>0.009995295743722019</v>
+        <v>0.04589747230832053</v>
       </c>
       <c r="I2">
-        <v>0.002670933310996659</v>
+        <v>0.06101643952501901</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.065725748738103</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05837567874938543</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.054393705263294</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1768403645695855</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997853015548628</v>
+        <v>0.8370056948716922</v>
       </c>
       <c r="C3">
-        <v>0.869853693225707</v>
+        <v>0.1381916989921592</v>
       </c>
       <c r="D3">
-        <v>0.3064966316520383</v>
+        <v>0.006301533374426294</v>
       </c>
       <c r="E3">
-        <v>1.155751310872887</v>
+        <v>0.01098406696620913</v>
       </c>
       <c r="F3">
-        <v>5.654258087503649</v>
+        <v>2.959757732322174</v>
       </c>
       <c r="G3">
-        <v>0.0007995267261627653</v>
+        <v>0.0008706195682788487</v>
       </c>
       <c r="H3">
-        <v>0.00566132105441941</v>
+        <v>0.05398402979783867</v>
       </c>
       <c r="I3">
-        <v>0.0006838291904367466</v>
+        <v>0.07065069931729528</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.931695813829478</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.052054781530817</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9227735886792061</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.156000163784455</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717878933285135</v>
+        <v>0.7640870877999077</v>
       </c>
       <c r="C4">
-        <v>0.7870470786523356</v>
+        <v>0.1260222200227048</v>
       </c>
       <c r="D4">
-        <v>0.2802437474734631</v>
+        <v>0.006335040822860738</v>
       </c>
       <c r="E4">
-        <v>1.042418103720038</v>
+        <v>0.009992012486518043</v>
       </c>
       <c r="F4">
-        <v>5.159655295851422</v>
+        <v>2.822189450882959</v>
       </c>
       <c r="G4">
-        <v>0.00080432863316101</v>
+        <v>0.0008735586547200603</v>
       </c>
       <c r="H4">
-        <v>0.003562661497822361</v>
+        <v>0.05945645887189865</v>
       </c>
       <c r="I4">
-        <v>0.0004342247631967666</v>
+        <v>0.07716306173458287</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.848522328183904</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04815514424230116</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8425530365732357</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1433030459266647</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604150420224698</v>
+        <v>0.7342757982563057</v>
       </c>
       <c r="C5">
-        <v>0.7552167163809997</v>
+        <v>0.1213625674026702</v>
       </c>
       <c r="D5">
-        <v>0.2683125171909211</v>
+        <v>0.00632867043528984</v>
       </c>
       <c r="E5">
-        <v>0.9965441341777392</v>
+        <v>0.009594298702614523</v>
       </c>
       <c r="F5">
-        <v>4.944718871251297</v>
+        <v>2.761455392637188</v>
       </c>
       <c r="G5">
-        <v>0.0008063365970838446</v>
+        <v>0.0008747919300337859</v>
       </c>
       <c r="H5">
-        <v>0.00283109922356406</v>
+        <v>0.06183107976380375</v>
       </c>
       <c r="I5">
-        <v>0.000622890166188661</v>
+        <v>0.08009502329649187</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.810985817027444</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04646585460907815</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8102013304515765</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1383169343922006</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585207879043878</v>
+        <v>0.7291548583904159</v>
       </c>
       <c r="C6">
-        <v>0.7518079961090791</v>
+        <v>0.1208641572850553</v>
       </c>
       <c r="D6">
-        <v>0.2648516623235935</v>
+        <v>0.006307733194546139</v>
       </c>
       <c r="E6">
-        <v>0.9888719871438241</v>
+        <v>0.009532515007001585</v>
       </c>
       <c r="F6">
-        <v>4.892255946361189</v>
+        <v>2.745889426799138</v>
       </c>
       <c r="G6">
-        <v>0.0008066988388415279</v>
+        <v>0.0008750113854677499</v>
       </c>
       <c r="H6">
-        <v>0.002711539273524188</v>
+        <v>0.06225863239956286</v>
       </c>
       <c r="I6">
-        <v>0.0007586302123687716</v>
+        <v>0.08075988219324692</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.800567616506598</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0460700668475198</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8050883679834726</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1376935917871691</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716100113317282</v>
+        <v>0.7632063038045658</v>
       </c>
       <c r="C7">
-        <v>0.7916813407236987</v>
+        <v>0.1266992061507466</v>
       </c>
       <c r="D7">
-        <v>0.2760110113271139</v>
+        <v>0.006280597991989878</v>
       </c>
       <c r="E7">
-        <v>1.041580167724106</v>
+        <v>0.009997758544027846</v>
       </c>
       <c r="F7">
-        <v>5.110605349627804</v>
+        <v>2.806417538628423</v>
       </c>
       <c r="G7">
-        <v>0.0008044293528601984</v>
+        <v>0.000873610752635225</v>
       </c>
       <c r="H7">
-        <v>0.00353482695453966</v>
+        <v>0.05955631738931855</v>
       </c>
       <c r="I7">
-        <v>0.0006621355425160402</v>
+        <v>0.07764277475125336</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.836607984614133</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04781704535229281</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.842799857604092</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.143792148430343</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297930760598206</v>
+        <v>0.9143410726540822</v>
       </c>
       <c r="C8">
-        <v>0.9664754913100921</v>
+        <v>0.1524491246814534</v>
       </c>
       <c r="D8">
-        <v>0.3289524093292329</v>
+        <v>0.006182677575988005</v>
       </c>
       <c r="E8">
-        <v>1.277802295241244</v>
+        <v>0.01207010112546936</v>
       </c>
       <c r="F8">
-        <v>6.121670233424283</v>
+        <v>3.086087231689035</v>
       </c>
       <c r="G8">
-        <v>0.0007945947571169861</v>
+        <v>0.000867612249478511</v>
       </c>
       <c r="H8">
-        <v>0.00834023203055928</v>
+        <v>0.04865708816052505</v>
       </c>
       <c r="I8">
-        <v>0.001998973943032389</v>
+        <v>0.06473634853046928</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.00455394563356</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05577568913856723</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.009768433195404</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1703745557793042</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.461276162754871</v>
+        <v>1.213850430232867</v>
       </c>
       <c r="C9">
-        <v>1.317628976875312</v>
+        <v>0.2046310440160966</v>
       </c>
       <c r="D9">
-        <v>0.4409129175473083</v>
+        <v>0.00597712823194918</v>
       </c>
       <c r="E9">
-        <v>1.758791490145597</v>
+        <v>0.0162658823410009</v>
       </c>
       <c r="F9">
-        <v>8.221729476999883</v>
+        <v>3.65638715187049</v>
       </c>
       <c r="G9">
-        <v>0.0007759650060087116</v>
+        <v>0.0008565382869992956</v>
       </c>
       <c r="H9">
-        <v>0.02293966575955908</v>
+        <v>0.0314072158914227</v>
       </c>
       <c r="I9">
-        <v>0.01318788530029646</v>
+        <v>0.043721314180587</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.347764369006171</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07187942959572169</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.34150138403902</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2224115219373601</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.332556541617578</v>
+        <v>1.435672181385598</v>
       </c>
       <c r="C10">
-        <v>1.589096750276838</v>
+        <v>0.2455571994164529</v>
       </c>
       <c r="D10">
-        <v>0.5003877811189454</v>
+        <v>0.005565410314230412</v>
       </c>
       <c r="E10">
-        <v>2.021280822810638</v>
+        <v>0.01852359147420835</v>
       </c>
       <c r="F10">
-        <v>9.52940342855976</v>
+        <v>3.989874337454182</v>
       </c>
       <c r="G10">
-        <v>0.0007632755018147897</v>
+        <v>0.0008490315116731664</v>
       </c>
       <c r="H10">
-        <v>0.03654587955837574</v>
+        <v>0.02224686962135802</v>
       </c>
       <c r="I10">
-        <v>0.02786243332301552</v>
+        <v>0.03212935496360014</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.538852977962236</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0796433463276216</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.589833901368024</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2536840636056468</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.696287717332439</v>
+        <v>1.5353924046386</v>
       </c>
       <c r="C11">
-        <v>1.68929629314573</v>
+        <v>0.265041049553048</v>
       </c>
       <c r="D11">
-        <v>0.3475534396946358</v>
+        <v>0.004324534504873245</v>
       </c>
       <c r="E11">
-        <v>1.319623735495057</v>
+        <v>0.01262511966121682</v>
       </c>
       <c r="F11">
-        <v>7.984121445527933</v>
+        <v>3.481954585793432</v>
       </c>
       <c r="G11">
-        <v>0.0007625219121048961</v>
+        <v>0.0008472545756034628</v>
       </c>
       <c r="H11">
-        <v>0.05102710592101189</v>
+        <v>0.04035467446808028</v>
       </c>
       <c r="I11">
-        <v>0.02986244529849014</v>
+        <v>0.03050438164507252</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.178181301604454</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05482482291745328</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.702602806351649</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.203412750366482</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.821453138132654</v>
+        <v>1.573312423675844</v>
       </c>
       <c r="C12">
-        <v>1.71081905899149</v>
+        <v>0.2714139064995607</v>
       </c>
       <c r="D12">
-        <v>0.2378295168972926</v>
+        <v>0.003931053353246838</v>
       </c>
       <c r="E12">
-        <v>0.8095450099342685</v>
+        <v>0.009086839005647107</v>
       </c>
       <c r="F12">
-        <v>6.621540193137264</v>
+        <v>3.037426759188691</v>
       </c>
       <c r="G12">
-        <v>0.0007639042150792652</v>
+        <v>0.0008471434785098885</v>
       </c>
       <c r="H12">
-        <v>0.08537059510579326</v>
+        <v>0.07969096244035967</v>
       </c>
       <c r="I12">
-        <v>0.02834500312373667</v>
+        <v>0.0305337207886387</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.877072318127503</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04132846724520434</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.743813642478869</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1587960879394217</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769062860697261</v>
+        <v>1.564689129148235</v>
       </c>
       <c r="C13">
-        <v>1.681431827745541</v>
+        <v>0.269082687115997</v>
       </c>
       <c r="D13">
-        <v>0.1489218976295632</v>
+        <v>0.004035292740358187</v>
       </c>
       <c r="E13">
-        <v>0.4192333535295205</v>
+        <v>0.007166188663463191</v>
       </c>
       <c r="F13">
-        <v>5.257492853800528</v>
+        <v>2.59389345289631</v>
       </c>
       <c r="G13">
-        <v>0.0007670939994285801</v>
+        <v>0.0008483603900547587</v>
       </c>
       <c r="H13">
-        <v>0.1363447470369579</v>
+        <v>0.1371723854146012</v>
       </c>
       <c r="I13">
-        <v>0.02441139653021018</v>
+        <v>0.03238187607736354</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.587323218106718</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03524635238618856</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.732919438588794</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1171408620482524</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.653258874752623</v>
+        <v>1.537482856138638</v>
       </c>
       <c r="C14">
-        <v>1.640501665964337</v>
+        <v>0.2637749104702607</v>
       </c>
       <c r="D14">
-        <v>0.09914364752189897</v>
+        <v>0.004385529205618965</v>
       </c>
       <c r="E14">
-        <v>0.2200208786317432</v>
+        <v>0.006818763141021922</v>
       </c>
       <c r="F14">
-        <v>4.320288365004302</v>
+        <v>2.287091935098786</v>
       </c>
       <c r="G14">
-        <v>0.0007700778533965794</v>
+        <v>0.0008498111278366602</v>
       </c>
       <c r="H14">
-        <v>0.18241339872894</v>
+        <v>0.1882228695917973</v>
       </c>
       <c r="I14">
-        <v>0.02096641771609153</v>
+        <v>0.03466201790389878</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.392070557747026</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.03549214534279699</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.702016926974295</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0904443720827004</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.587027398541977</v>
+        <v>1.520749488866073</v>
       </c>
       <c r="C15">
-        <v>1.621696695691526</v>
+        <v>0.2609639587318497</v>
       </c>
       <c r="D15">
-        <v>0.08790478637317278</v>
+        <v>0.004541904385433781</v>
       </c>
       <c r="E15">
-        <v>0.180148105521539</v>
+        <v>0.006825692484910606</v>
       </c>
       <c r="F15">
-        <v>4.065077586257132</v>
+        <v>2.205183075521248</v>
       </c>
       <c r="G15">
-        <v>0.0007712711082461959</v>
+        <v>0.000850476500875375</v>
       </c>
       <c r="H15">
-        <v>0.1938160907104987</v>
+        <v>0.2015100208756309</v>
       </c>
       <c r="I15">
-        <v>0.01972158660848322</v>
+        <v>0.03582838687564927</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.341133103133934</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03602912153661642</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.683717451684601</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08407803833380001</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.224085017559617</v>
+        <v>1.426458057483984</v>
       </c>
       <c r="C16">
-        <v>1.516492032032318</v>
+        <v>0.2439511974101549</v>
       </c>
       <c r="D16">
-        <v>0.08526566423042681</v>
+        <v>0.004635690778433954</v>
       </c>
       <c r="E16">
-        <v>0.1700411051112454</v>
+        <v>0.006312615385969833</v>
       </c>
       <c r="F16">
-        <v>3.828971836814645</v>
+        <v>2.154108088474558</v>
       </c>
       <c r="G16">
-        <v>0.00077591099244641</v>
+        <v>0.0008534430573983073</v>
       </c>
       <c r="H16">
-        <v>0.1772398316277872</v>
+        <v>0.1925820003472296</v>
       </c>
       <c r="I16">
-        <v>0.01491254195543057</v>
+        <v>0.04056134335419426</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.318741247839959</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03421411646104922</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.578971945076717</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08072183064899008</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.007352928785792</v>
+        <v>1.368755572714434</v>
       </c>
       <c r="C17">
-        <v>1.457340512143503</v>
+        <v>0.2338518662243416</v>
       </c>
       <c r="D17">
-        <v>0.1063005318635462</v>
+        <v>0.004492843414460879</v>
       </c>
       <c r="E17">
-        <v>0.2527426306022065</v>
+        <v>0.005921421324751264</v>
       </c>
       <c r="F17">
-        <v>4.119620197415884</v>
+        <v>2.272767282925273</v>
       </c>
       <c r="G17">
-        <v>0.0007779609381707517</v>
+        <v>0.0008549610402393204</v>
       </c>
       <c r="H17">
-        <v>0.1380845818779335</v>
+        <v>0.1568660596911826</v>
       </c>
       <c r="I17">
-        <v>0.01298819220147251</v>
+        <v>0.043052093600914</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.40132478469549</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03183110990565918</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.515330491100684</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0916457117908962</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.891181072940014</v>
+        <v>1.336049919211973</v>
       </c>
       <c r="C18">
-        <v>1.426784906721878</v>
+        <v>0.2277087866207808</v>
       </c>
       <c r="D18">
-        <v>0.1630917184647416</v>
+        <v>0.004300394969014576</v>
       </c>
       <c r="E18">
-        <v>0.488672800946965</v>
+        <v>0.00652878803069501</v>
       </c>
       <c r="F18">
-        <v>4.989782952390868</v>
+        <v>2.577414982897508</v>
       </c>
       <c r="G18">
-        <v>0.0007777175351106891</v>
+        <v>0.0008553029938000121</v>
       </c>
       <c r="H18">
-        <v>0.08624958060428156</v>
+        <v>0.1042944437512077</v>
       </c>
       <c r="I18">
-        <v>0.0128610273449894</v>
+        <v>0.04319956358458832</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.60425137043319</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03289304042754093</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.478705977623804</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1185701527697063</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.865410637195282</v>
+        <v>1.324649948455345</v>
       </c>
       <c r="C19">
-        <v>1.433989826580387</v>
+        <v>0.2265760689746799</v>
       </c>
       <c r="D19">
-        <v>0.2585924094822332</v>
+        <v>0.004496266959421291</v>
       </c>
       <c r="E19">
-        <v>0.9316599478342198</v>
+        <v>0.0093170084398011</v>
       </c>
       <c r="F19">
-        <v>6.311405617291229</v>
+        <v>3.015598267463545</v>
       </c>
       <c r="G19">
-        <v>0.0007753471943131185</v>
+        <v>0.0008546298916604001</v>
       </c>
       <c r="H19">
-        <v>0.04486607482094485</v>
+        <v>0.0573601969394204</v>
       </c>
       <c r="I19">
-        <v>0.01491509726212481</v>
+        <v>0.04201684648266912</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.895232284622722</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0427968373301546</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.467537581966553</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1615719841654482</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.100185226391659</v>
+        <v>1.375571266489487</v>
       </c>
       <c r="C20">
-        <v>1.532472938516833</v>
+        <v>0.2369823427417259</v>
       </c>
       <c r="D20">
-        <v>0.4702190910753643</v>
+        <v>0.00553293777591668</v>
       </c>
       <c r="E20">
-        <v>1.945769640609583</v>
+        <v>0.01791150544721809</v>
       </c>
       <c r="F20">
-        <v>9.0203272447026</v>
+        <v>3.852719594359627</v>
       </c>
       <c r="G20">
-        <v>0.0007668416119520997</v>
+        <v>0.0008510821981425474</v>
       </c>
       <c r="H20">
-        <v>0.03244554102579755</v>
+        <v>0.02458746672979828</v>
       </c>
       <c r="I20">
-        <v>0.02379408360536761</v>
+        <v>0.03610399165205447</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.451301479353575</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07642934676648849</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.526291149962333</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2468587371124755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.784892976581773</v>
+        <v>1.547104402628605</v>
       </c>
       <c r="C21">
-        <v>1.750257957264921</v>
+        <v>0.268927686423325</v>
       </c>
       <c r="D21">
-        <v>0.5534414014092022</v>
+        <v>0.005479154350909954</v>
       </c>
       <c r="E21">
-        <v>2.318371252717682</v>
+        <v>0.02119100747950498</v>
       </c>
       <c r="F21">
-        <v>10.45960704905036</v>
+        <v>4.235986295575259</v>
       </c>
       <c r="G21">
-        <v>0.000756201365715177</v>
+        <v>0.0008451382755906963</v>
       </c>
       <c r="H21">
-        <v>0.0464444912688986</v>
+        <v>0.01755382798789462</v>
       </c>
       <c r="I21">
-        <v>0.03888522512563775</v>
+        <v>0.02760340241423798</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.684584038484985</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08873679169556681</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.718540643977747</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2831425446258322</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.238143054835405</v>
+        <v>1.660555692070801</v>
       </c>
       <c r="C22">
-        <v>1.888477988335353</v>
+        <v>0.2893636316665607</v>
       </c>
       <c r="D22">
-        <v>0.6034973891750326</v>
+        <v>0.005409929932445268</v>
       </c>
       <c r="E22">
-        <v>2.513470465521181</v>
+        <v>0.02286753665595675</v>
       </c>
       <c r="F22">
-        <v>11.35561038052936</v>
+        <v>4.467507200298087</v>
       </c>
       <c r="G22">
-        <v>0.0007494717359220136</v>
+        <v>0.0008413769224578154</v>
       </c>
       <c r="H22">
-        <v>0.05622256578920748</v>
+        <v>0.01385314199855503</v>
       </c>
       <c r="I22">
-        <v>0.05032041316143676</v>
+        <v>0.02249894704759203</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.825272633855917</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09526413955385493</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.844489716037288</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3022364760228839</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996341369730999</v>
+        <v>1.6005990992183</v>
       </c>
       <c r="C23">
-        <v>1.808243448853432</v>
+        <v>0.2775088804313839</v>
       </c>
       <c r="D23">
-        <v>0.5820632899846885</v>
+        <v>0.005501694943241375</v>
       </c>
       <c r="E23">
-        <v>2.409407682906746</v>
+        <v>0.02195621507829415</v>
       </c>
       <c r="F23">
-        <v>10.93547678253219</v>
+        <v>4.361682932917489</v>
       </c>
       <c r="G23">
-        <v>0.0007529736297253577</v>
+        <v>0.0008433417567851818</v>
       </c>
       <c r="H23">
-        <v>0.05097258498324031</v>
+        <v>0.01573132624407381</v>
       </c>
       <c r="I23">
-        <v>0.04393539907997379</v>
+        <v>0.02473715499221374</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.763765773609677</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09217068781772753</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.776401917683387</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.291347154297668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093396454990398</v>
+        <v>1.373811014666074</v>
       </c>
       <c r="C24">
-        <v>1.522929633599688</v>
+        <v>0.235177643059771</v>
       </c>
       <c r="D24">
-        <v>0.494095960497134</v>
+        <v>0.00573920173646103</v>
       </c>
       <c r="E24">
-        <v>2.024357664267967</v>
+        <v>0.01860600390405587</v>
       </c>
       <c r="F24">
-        <v>9.282577626360364</v>
+        <v>3.933659732752147</v>
       </c>
       <c r="G24">
-        <v>0.0007664096614360714</v>
+        <v>0.0008509760468052956</v>
       </c>
       <c r="H24">
-        <v>0.03328234609949288</v>
+        <v>0.02415241727760131</v>
       </c>
       <c r="I24">
-        <v>0.02388743652415215</v>
+        <v>0.0353023994009245</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.509001235073001</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07993152566495709</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.522175931891724</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2515656218407258</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142656613778001</v>
+        <v>1.131567946235833</v>
       </c>
       <c r="C25">
-        <v>1.229542174013773</v>
+        <v>0.1914978706991803</v>
       </c>
       <c r="D25">
-        <v>0.4026513398619613</v>
+        <v>0.005954108697330929</v>
       </c>
       <c r="E25">
-        <v>1.625711697670212</v>
+        <v>0.01512992738318175</v>
       </c>
       <c r="F25">
-        <v>7.560761790821061</v>
+        <v>3.475383505082874</v>
       </c>
       <c r="G25">
-        <v>0.0007810655889403182</v>
+        <v>0.0008595159659649578</v>
       </c>
       <c r="H25">
-        <v>0.01826779157226266</v>
+        <v>0.03568037119856537</v>
       </c>
       <c r="I25">
-        <v>0.009293847328576632</v>
+        <v>0.0495248721030972</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.234871394311654</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06693262086799123</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.252241775714538</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2092425093700427</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_8_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9561215347078189</v>
+        <v>0.9283577199707338</v>
       </c>
       <c r="C2">
-        <v>0.1585645470908332</v>
+        <v>0.2087854933061806</v>
       </c>
       <c r="D2">
-        <v>0.006224736383794616</v>
+        <v>0.004758080008906873</v>
       </c>
       <c r="E2">
-        <v>0.0126247469443479</v>
+        <v>0.01967787498821494</v>
       </c>
       <c r="F2">
-        <v>3.182624166320224</v>
+        <v>2.17479701552233</v>
       </c>
       <c r="G2">
-        <v>0.0008659906903234131</v>
+        <v>0.08694630866132291</v>
       </c>
       <c r="H2">
-        <v>0.04589747230832053</v>
+        <v>0.02503186696958748</v>
       </c>
       <c r="I2">
-        <v>0.06101643952501901</v>
+        <v>0.03031701003857901</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.065725748738103</v>
+        <v>1.303685813465535</v>
       </c>
       <c r="L2">
-        <v>0.05837567874938543</v>
+        <v>0.4971307471476649</v>
       </c>
       <c r="M2">
-        <v>1.054393705263294</v>
+        <v>0.477889158010619</v>
       </c>
       <c r="N2">
-        <v>0.1768403645695855</v>
+        <v>0.05067402532437271</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100104594748331</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2257577707303398</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8370056948716922</v>
+        <v>0.8099016761537996</v>
       </c>
       <c r="C3">
-        <v>0.1381916989921592</v>
+        <v>0.1801128591868775</v>
       </c>
       <c r="D3">
-        <v>0.006301533374426294</v>
+        <v>0.00394931999693604</v>
       </c>
       <c r="E3">
-        <v>0.01098406696620913</v>
+        <v>0.01795958573554923</v>
       </c>
       <c r="F3">
-        <v>2.959757732322174</v>
+        <v>2.046474456952154</v>
       </c>
       <c r="G3">
-        <v>0.0008706195682788487</v>
+        <v>0.09838522990305476</v>
       </c>
       <c r="H3">
-        <v>0.05398402979783867</v>
+        <v>0.0298665874971713</v>
       </c>
       <c r="I3">
-        <v>0.07065069931729528</v>
+        <v>0.03545536568463525</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.931695813829478</v>
+        <v>1.240978336301971</v>
       </c>
       <c r="L3">
-        <v>0.052054781530817</v>
+        <v>0.483055792976046</v>
       </c>
       <c r="M3">
-        <v>0.9227735886792061</v>
+        <v>0.4470612982485918</v>
       </c>
       <c r="N3">
-        <v>0.156000163784455</v>
+        <v>0.04690143522145718</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9574269957465731</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1998896063186208</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7640870877999077</v>
+        <v>0.7370995037996408</v>
       </c>
       <c r="C4">
-        <v>0.1260222200227048</v>
+        <v>0.1627602064384064</v>
       </c>
       <c r="D4">
-        <v>0.006335040822860738</v>
+        <v>0.003479882162343628</v>
       </c>
       <c r="E4">
-        <v>0.009992012486518043</v>
+        <v>0.01690672093432877</v>
       </c>
       <c r="F4">
-        <v>2.822189450882959</v>
+        <v>1.966643714823391</v>
       </c>
       <c r="G4">
-        <v>0.0008735586547200603</v>
+        <v>0.1060102929188815</v>
       </c>
       <c r="H4">
-        <v>0.05945645887189865</v>
+        <v>0.03316307807337382</v>
       </c>
       <c r="I4">
-        <v>0.07716306173458287</v>
+        <v>0.03897167376920274</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.848522328183904</v>
+        <v>1.201536781982199</v>
       </c>
       <c r="L4">
-        <v>0.04815514424230116</v>
+        <v>0.4737011526605528</v>
       </c>
       <c r="M4">
-        <v>0.8425530365732357</v>
+        <v>0.4286855952584574</v>
       </c>
       <c r="N4">
-        <v>0.1433030459266647</v>
+        <v>0.04454141752550811</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8700432668383939</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1841250356424595</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7342757982563057</v>
+        <v>0.707283099350434</v>
       </c>
       <c r="C5">
-        <v>0.1213625674026702</v>
+        <v>0.155953258747715</v>
       </c>
       <c r="D5">
-        <v>0.00632867043528984</v>
+        <v>0.003337182249291359</v>
       </c>
       <c r="E5">
-        <v>0.009594298702614523</v>
+        <v>0.01648116009744349</v>
       </c>
       <c r="F5">
-        <v>2.761455392637188</v>
+        <v>1.930791119458206</v>
       </c>
       <c r="G5">
-        <v>0.0008747919300337859</v>
+        <v>0.109291343107154</v>
       </c>
       <c r="H5">
-        <v>0.06183107976380375</v>
+        <v>0.03459810908026806</v>
       </c>
       <c r="I5">
-        <v>0.08009502329649187</v>
+        <v>0.04061708759866178</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.810985817027444</v>
+        <v>1.183030906863564</v>
       </c>
       <c r="L5">
-        <v>0.04646585460907815</v>
+        <v>0.4688118841136983</v>
       </c>
       <c r="M5">
-        <v>0.8102013304515765</v>
+        <v>0.4205941147971259</v>
       </c>
       <c r="N5">
-        <v>0.1383169343922006</v>
+        <v>0.04350556982922349</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8346414760073912</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1778794012299301</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7291548583904159</v>
+        <v>0.7021762401909086</v>
       </c>
       <c r="C6">
-        <v>0.1208641572850553</v>
+        <v>0.155078946720451</v>
       </c>
       <c r="D6">
-        <v>0.006307733194546139</v>
+        <v>0.003365749314415467</v>
       </c>
       <c r="E6">
-        <v>0.009532515007001585</v>
+        <v>0.01641449748014789</v>
       </c>
       <c r="F6">
-        <v>2.745889426799138</v>
+        <v>1.92109142018812</v>
       </c>
       <c r="G6">
-        <v>0.0008750113854677499</v>
+        <v>0.1098778283924537</v>
       </c>
       <c r="H6">
-        <v>0.06225863239956286</v>
+        <v>0.03485563232774935</v>
       </c>
       <c r="I6">
-        <v>0.08075988219324692</v>
+        <v>0.04105625906171895</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.800567616506598</v>
+        <v>1.177262898909348</v>
       </c>
       <c r="L6">
-        <v>0.0460700668475198</v>
+        <v>0.4668942723435308</v>
       </c>
       <c r="M6">
-        <v>0.8050883679834726</v>
+        <v>0.4183528032777417</v>
       </c>
       <c r="N6">
-        <v>0.1376935917871691</v>
+        <v>0.04325652759705356</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8289642158659092</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.177029144399441</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7632063038045658</v>
+        <v>0.7375418122668975</v>
       </c>
       <c r="C7">
-        <v>0.1266992061507466</v>
+        <v>0.1612511569757515</v>
       </c>
       <c r="D7">
-        <v>0.006280597991989878</v>
+        <v>0.003952248169362349</v>
       </c>
       <c r="E7">
-        <v>0.009997758544027846</v>
+        <v>0.01705397339185311</v>
       </c>
       <c r="F7">
-        <v>2.806417538628423</v>
+        <v>1.938216300761027</v>
       </c>
       <c r="G7">
-        <v>0.000873610752635225</v>
+        <v>0.1069569540814395</v>
       </c>
       <c r="H7">
-        <v>0.05955631738931855</v>
+        <v>0.03328415647676586</v>
       </c>
       <c r="I7">
-        <v>0.07764277475125336</v>
+        <v>0.03949028854661574</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.836607984614133</v>
+        <v>1.182658401944352</v>
       </c>
       <c r="L7">
-        <v>0.04781704535229281</v>
+        <v>0.4661218656619326</v>
       </c>
       <c r="M7">
-        <v>0.842799857604092</v>
+        <v>0.4221829303783622</v>
       </c>
       <c r="N7">
-        <v>0.143792148430343</v>
+        <v>0.0441531314519743</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8683822640697656</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1844794297827121</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9143410726540822</v>
+        <v>0.8911779744720718</v>
       </c>
       <c r="C8">
-        <v>0.1524491246814534</v>
+        <v>0.1926922486747742</v>
       </c>
       <c r="D8">
-        <v>0.006182677575988005</v>
+        <v>0.00586261737072391</v>
       </c>
       <c r="E8">
-        <v>0.01207010112546936</v>
+        <v>0.01957971262292446</v>
       </c>
       <c r="F8">
-        <v>3.086087231689035</v>
+        <v>2.059063037067972</v>
       </c>
       <c r="G8">
-        <v>0.000867612249478511</v>
+        <v>0.09407274748434524</v>
       </c>
       <c r="H8">
-        <v>0.04865708816052505</v>
+        <v>0.02685490106767507</v>
       </c>
       <c r="I8">
-        <v>0.06473634853046928</v>
+        <v>0.03274244688897721</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.00455394563356</v>
+        <v>1.235700808540606</v>
       </c>
       <c r="L8">
-        <v>0.05577568913856723</v>
+        <v>0.4743411386992307</v>
       </c>
       <c r="M8">
-        <v>1.009768433195404</v>
+        <v>0.4504595698734732</v>
       </c>
       <c r="N8">
-        <v>0.1703745557793042</v>
+        <v>0.04855967282933449</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.045728164182322</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2172568124584302</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.213850430232867</v>
+        <v>1.188334353364951</v>
       </c>
       <c r="C9">
-        <v>0.2046310440160966</v>
+        <v>0.262914938087647</v>
       </c>
       <c r="D9">
-        <v>0.00597712823194918</v>
+        <v>0.008273952935518025</v>
       </c>
       <c r="E9">
-        <v>0.0162658823410009</v>
+        <v>0.02402155171098386</v>
       </c>
       <c r="F9">
-        <v>3.65638715187049</v>
+        <v>2.369938300135345</v>
       </c>
       <c r="G9">
-        <v>0.0008565382869992956</v>
+        <v>0.06924687849538458</v>
       </c>
       <c r="H9">
-        <v>0.0314072158914227</v>
+        <v>0.01667995173732983</v>
       </c>
       <c r="I9">
-        <v>0.043721314180587</v>
+        <v>0.02157263418537969</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.347764369006171</v>
+        <v>1.385815088260813</v>
       </c>
       <c r="L9">
-        <v>0.07187942959572169</v>
+        <v>0.5062126218939937</v>
       </c>
       <c r="M9">
-        <v>1.34150138403902</v>
+        <v>0.5288782117824908</v>
       </c>
       <c r="N9">
-        <v>0.2224115219373601</v>
+        <v>0.0578474578459236</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.401005798637442</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2819149585681657</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435672181385598</v>
+        <v>1.414680046207479</v>
       </c>
       <c r="C10">
-        <v>0.2455571994164529</v>
+        <v>0.3027499418433308</v>
       </c>
       <c r="D10">
-        <v>0.005565410314230412</v>
+        <v>0.01295975431941798</v>
       </c>
       <c r="E10">
-        <v>0.01852359147420835</v>
+        <v>0.0271302630815633</v>
       </c>
       <c r="F10">
-        <v>3.989874337454182</v>
+        <v>2.443987817982745</v>
       </c>
       <c r="G10">
-        <v>0.0008490315116731664</v>
+        <v>0.06381676659689717</v>
       </c>
       <c r="H10">
-        <v>0.02224686962135802</v>
+        <v>0.01168832191873026</v>
       </c>
       <c r="I10">
-        <v>0.03212935496360014</v>
+        <v>0.01595209528253072</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.538852977962236</v>
+        <v>1.398425435473911</v>
       </c>
       <c r="L10">
-        <v>0.0796433463276216</v>
+        <v>0.4931630354153569</v>
       </c>
       <c r="M10">
-        <v>1.589833901368024</v>
+        <v>0.5525789539596175</v>
       </c>
       <c r="N10">
-        <v>0.2536840636056468</v>
+        <v>0.06089263108828646</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.652449004336972</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3203504729814455</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.5353924046386</v>
+        <v>1.534835546562789</v>
       </c>
       <c r="C11">
-        <v>0.265041049553048</v>
+        <v>0.2916968914768745</v>
       </c>
       <c r="D11">
-        <v>0.004324534504873245</v>
+        <v>0.02238014344901984</v>
       </c>
       <c r="E11">
-        <v>0.01262511966121682</v>
+        <v>0.02152191101374346</v>
       </c>
       <c r="F11">
-        <v>3.481954585793432</v>
+        <v>1.942583970166226</v>
       </c>
       <c r="G11">
-        <v>0.0008472545756034628</v>
+        <v>0.09753420989094863</v>
       </c>
       <c r="H11">
-        <v>0.04035467446808028</v>
+        <v>0.0304231545060496</v>
       </c>
       <c r="I11">
-        <v>0.03050438164507252</v>
+        <v>0.01582904214879566</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.178181301604454</v>
+        <v>1.082374142354254</v>
       </c>
       <c r="L11">
-        <v>0.05482482291745328</v>
+        <v>0.3754223797159426</v>
       </c>
       <c r="M11">
-        <v>1.702602806351649</v>
+        <v>0.43508017317194</v>
       </c>
       <c r="N11">
-        <v>0.203412750366482</v>
+        <v>0.04449180394712826</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.739518353233507</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2584963545589147</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.573312423675844</v>
+        <v>1.584909563594067</v>
       </c>
       <c r="C12">
-        <v>0.2714139064995607</v>
+        <v>0.2806089059647263</v>
       </c>
       <c r="D12">
-        <v>0.003931053353246838</v>
+        <v>0.02778161604079799</v>
       </c>
       <c r="E12">
-        <v>0.009086839005647107</v>
+        <v>0.01707136852568869</v>
       </c>
       <c r="F12">
-        <v>3.037426759188691</v>
+        <v>1.614701783909794</v>
       </c>
       <c r="G12">
-        <v>0.0008471434785098885</v>
+        <v>0.1227340167329274</v>
       </c>
       <c r="H12">
-        <v>0.07969096244035967</v>
+        <v>0.06960646381876501</v>
       </c>
       <c r="I12">
-        <v>0.0305337207886387</v>
+        <v>0.01590040912877733</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.877072318127503</v>
+        <v>0.8882262861076384</v>
       </c>
       <c r="L12">
-        <v>0.04132846724520434</v>
+        <v>0.3066917231696209</v>
       </c>
       <c r="M12">
-        <v>1.743813642478869</v>
+        <v>0.3591226731272741</v>
       </c>
       <c r="N12">
-        <v>0.1587960879394217</v>
+        <v>0.0388870983634666</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.765229715462311</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2038972400273593</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.564689129148235</v>
+        <v>1.57886269632445</v>
       </c>
       <c r="C13">
-        <v>0.269082687115997</v>
+        <v>0.2745245957434292</v>
       </c>
       <c r="D13">
-        <v>0.004035292740358187</v>
+        <v>0.02784095161997158</v>
       </c>
       <c r="E13">
-        <v>0.007166188663463191</v>
+        <v>0.01357149533728919</v>
       </c>
       <c r="F13">
-        <v>2.59389345289631</v>
+        <v>1.394338374767301</v>
       </c>
       <c r="G13">
-        <v>0.0008483603900547587</v>
+        <v>0.1184828389181369</v>
       </c>
       <c r="H13">
-        <v>0.1371723854146012</v>
+        <v>0.1262395225951138</v>
       </c>
       <c r="I13">
-        <v>0.03238187607736354</v>
+        <v>0.01666897344652263</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.587323218106718</v>
+        <v>0.7662710388333309</v>
       </c>
       <c r="L13">
-        <v>0.03524635238618856</v>
+        <v>0.2655983534099775</v>
       </c>
       <c r="M13">
-        <v>1.732919438588794</v>
+        <v>0.3089327383327571</v>
       </c>
       <c r="N13">
-        <v>0.1171408620482524</v>
+        <v>0.0402002953502727</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.750728358772875</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1529096904730665</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.537482856138638</v>
+        <v>1.549171820077959</v>
       </c>
       <c r="C14">
-        <v>0.2637749104702607</v>
+        <v>0.2723574639690298</v>
       </c>
       <c r="D14">
-        <v>0.004385529205618965</v>
+        <v>0.02553076124745957</v>
       </c>
       <c r="E14">
-        <v>0.006818763141021922</v>
+        <v>0.0121676531161633</v>
       </c>
       <c r="F14">
-        <v>2.287091935098786</v>
+        <v>1.277577867402982</v>
       </c>
       <c r="G14">
-        <v>0.0008498111278366602</v>
+        <v>0.1033576888211805</v>
       </c>
       <c r="H14">
-        <v>0.1882228695917973</v>
+        <v>0.1763755969343777</v>
       </c>
       <c r="I14">
-        <v>0.03466201790389878</v>
+        <v>0.01767644664288692</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.392070557747026</v>
+        <v>0.705630414761977</v>
       </c>
       <c r="L14">
-        <v>0.03549214534279699</v>
+        <v>0.2460095642696984</v>
       </c>
       <c r="M14">
-        <v>1.702016926974295</v>
+        <v>0.2828680840994053</v>
       </c>
       <c r="N14">
-        <v>0.0904443720827004</v>
+        <v>0.04480537892110448</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.72232989292479</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1200868896569816</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.520749488866073</v>
+        <v>1.530015389748684</v>
       </c>
       <c r="C15">
-        <v>0.2609639587318497</v>
+        <v>0.2727379829728704</v>
       </c>
       <c r="D15">
-        <v>0.004541904385433781</v>
+        <v>0.02407583768240329</v>
       </c>
       <c r="E15">
-        <v>0.006825692484910606</v>
+        <v>0.0119618329073421</v>
       </c>
       <c r="F15">
-        <v>2.205183075521248</v>
+        <v>1.259647969744677</v>
       </c>
       <c r="G15">
-        <v>0.000850476500875375</v>
+        <v>0.09555275525382712</v>
       </c>
       <c r="H15">
-        <v>0.2015100208756309</v>
+        <v>0.1892479537919343</v>
       </c>
       <c r="I15">
-        <v>0.03582838687564927</v>
+        <v>0.01827636297406787</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.341133103133934</v>
+        <v>0.6976407166180394</v>
       </c>
       <c r="L15">
-        <v>0.03602912153661642</v>
+        <v>0.2438189473607508</v>
       </c>
       <c r="M15">
-        <v>1.683717451684601</v>
+        <v>0.2789005582490951</v>
       </c>
       <c r="N15">
-        <v>0.08407803833380001</v>
+        <v>0.0462489968175106</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.706710497421909</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1122244482797683</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426458057483984</v>
+        <v>1.420653924944304</v>
       </c>
       <c r="C16">
-        <v>0.2439511974101549</v>
+        <v>0.2760139954124838</v>
       </c>
       <c r="D16">
-        <v>0.004635690778433954</v>
+        <v>0.01632612875859252</v>
       </c>
       <c r="E16">
-        <v>0.006312615385969833</v>
+        <v>0.01158786129618627</v>
       </c>
       <c r="F16">
-        <v>2.154108088474558</v>
+        <v>1.363349856264833</v>
       </c>
       <c r="G16">
-        <v>0.0008534430573983073</v>
+        <v>0.0699254807675409</v>
       </c>
       <c r="H16">
-        <v>0.1925820003472296</v>
+        <v>0.1784010708076096</v>
       </c>
       <c r="I16">
-        <v>0.04056134335419426</v>
+        <v>0.02042903725781464</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.318741247839959</v>
+        <v>0.7654036683010617</v>
       </c>
       <c r="L16">
-        <v>0.03421411646104922</v>
+        <v>0.270277040444391</v>
       </c>
       <c r="M16">
-        <v>1.578971945076717</v>
+        <v>0.3021774785555245</v>
       </c>
       <c r="N16">
-        <v>0.08072183064899008</v>
+        <v>0.04404045702830039</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.61869285322615</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1083156721181666</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.368755572714434</v>
+        <v>1.355071009872773</v>
       </c>
       <c r="C17">
-        <v>0.2338518662243416</v>
+        <v>0.2766184518070816</v>
       </c>
       <c r="D17">
-        <v>0.004492843414460879</v>
+        <v>0.01292056292009747</v>
       </c>
       <c r="E17">
-        <v>0.005921421324751264</v>
+        <v>0.01151687184957223</v>
       </c>
       <c r="F17">
-        <v>2.272767282925273</v>
+        <v>1.497551175264803</v>
       </c>
       <c r="G17">
-        <v>0.0008549610402393204</v>
+        <v>0.06546477911404835</v>
       </c>
       <c r="H17">
-        <v>0.1568660596911826</v>
+        <v>0.1416990672287426</v>
       </c>
       <c r="I17">
-        <v>0.043052093600914</v>
+        <v>0.02162310535880874</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.40132478469549</v>
+        <v>0.8474069878010582</v>
       </c>
       <c r="L17">
-        <v>0.03183110990565918</v>
+        <v>0.3013855237019278</v>
       </c>
       <c r="M17">
-        <v>1.515330491100684</v>
+        <v>0.3319283190624347</v>
       </c>
       <c r="N17">
-        <v>0.0916457117908962</v>
+        <v>0.03968861927078393</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.563406721616047</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1219277794327311</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.336049919211973</v>
+        <v>1.316697578982627</v>
       </c>
       <c r="C18">
-        <v>0.2277087866207808</v>
+        <v>0.2787924118417493</v>
       </c>
       <c r="D18">
-        <v>0.004300394969014576</v>
+        <v>0.01088045031689333</v>
       </c>
       <c r="E18">
-        <v>0.00652878803069501</v>
+        <v>0.01253247596046858</v>
       </c>
       <c r="F18">
-        <v>2.577414982897508</v>
+        <v>1.715443796196993</v>
       </c>
       <c r="G18">
-        <v>0.0008553029938000121</v>
+        <v>0.06424466544745133</v>
       </c>
       <c r="H18">
-        <v>0.1042944437512077</v>
+        <v>0.08900689551556695</v>
       </c>
       <c r="I18">
-        <v>0.04319956358458832</v>
+        <v>0.02152111704885495</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.60425137043319</v>
+        <v>0.9772827170811738</v>
       </c>
       <c r="L18">
-        <v>0.03289304042754093</v>
+        <v>0.3492629759510066</v>
       </c>
       <c r="M18">
-        <v>1.478705977623804</v>
+        <v>0.3809109704755329</v>
       </c>
       <c r="N18">
-        <v>0.1185701527697063</v>
+        <v>0.03662537446027292</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.533538650514828</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1552366784814865</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.324649948455345</v>
+        <v>1.300785579853425</v>
       </c>
       <c r="C19">
-        <v>0.2265760689746799</v>
+        <v>0.2852723659670744</v>
       </c>
       <c r="D19">
-        <v>0.004496266959421291</v>
+        <v>0.009897299908974588</v>
       </c>
       <c r="E19">
-        <v>0.0093170084398011</v>
+        <v>0.01584193386499599</v>
       </c>
       <c r="F19">
-        <v>3.015598267463545</v>
+        <v>1.996129775572911</v>
       </c>
       <c r="G19">
-        <v>0.0008546298916604001</v>
+        <v>0.06267899905269347</v>
       </c>
       <c r="H19">
-        <v>0.0573601969394204</v>
+        <v>0.04277915460581738</v>
       </c>
       <c r="I19">
-        <v>0.04201684648266912</v>
+        <v>0.02105792383796423</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.895232284622722</v>
+        <v>1.143626069534228</v>
       </c>
       <c r="L19">
-        <v>0.0427968373301546</v>
+        <v>0.4096820329731727</v>
       </c>
       <c r="M19">
-        <v>1.467537581966553</v>
+        <v>0.4447530298892204</v>
       </c>
       <c r="N19">
-        <v>0.1615719841654482</v>
+        <v>0.04008355676183406</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.52891476663018</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2078915612454324</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375571266489487</v>
+        <v>1.349164973801749</v>
       </c>
       <c r="C20">
-        <v>0.2369823427417259</v>
+        <v>0.302149983177344</v>
       </c>
       <c r="D20">
-        <v>0.00553293777591668</v>
+        <v>0.01069828185831767</v>
       </c>
       <c r="E20">
-        <v>0.01791150544721809</v>
+        <v>0.02576671741070236</v>
       </c>
       <c r="F20">
-        <v>3.852719594359627</v>
+        <v>2.453687191801052</v>
       </c>
       <c r="G20">
-        <v>0.0008510821981425474</v>
+        <v>0.05927919414233251</v>
       </c>
       <c r="H20">
-        <v>0.02458746672979828</v>
+        <v>0.01282122540711672</v>
       </c>
       <c r="I20">
-        <v>0.03610399165205447</v>
+        <v>0.01832380357890884</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.451301479353575</v>
+        <v>1.410977396315786</v>
       </c>
       <c r="L20">
-        <v>0.07642934676648849</v>
+        <v>0.5021550048749219</v>
       </c>
       <c r="M20">
-        <v>1.526291149962333</v>
+        <v>0.5524747961559413</v>
       </c>
       <c r="N20">
-        <v>0.2468587371124755</v>
+        <v>0.05994173834522698</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.59454387784416</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3116925013199534</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.547104402628605</v>
+        <v>1.547414528190586</v>
       </c>
       <c r="C21">
-        <v>0.268927686423325</v>
+        <v>0.2940759712112992</v>
       </c>
       <c r="D21">
-        <v>0.005479154350909954</v>
+        <v>0.02461396053499953</v>
       </c>
       <c r="E21">
-        <v>0.02119100747950498</v>
+        <v>0.03297833321481747</v>
       </c>
       <c r="F21">
-        <v>4.235986295575259</v>
+        <v>2.276436557349655</v>
       </c>
       <c r="G21">
-        <v>0.0008451382755906963</v>
+        <v>0.1166137004270595</v>
       </c>
       <c r="H21">
-        <v>0.01755382798789462</v>
+        <v>0.009389242291287722</v>
       </c>
       <c r="I21">
-        <v>0.02760340241423798</v>
+        <v>0.01484455166823828</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.684584038484985</v>
+        <v>1.275435025634756</v>
       </c>
       <c r="L21">
-        <v>0.08873679169556681</v>
+        <v>0.4419872808203991</v>
       </c>
       <c r="M21">
-        <v>1.718540643977747</v>
+        <v>0.5130521216172497</v>
       </c>
       <c r="N21">
-        <v>0.2831425446258322</v>
+        <v>0.06337847505367122</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.75418155583364</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3547099051136087</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.660555692070801</v>
+        <v>1.680798514689087</v>
       </c>
       <c r="C22">
-        <v>0.2893636316665607</v>
+        <v>0.2857948893953903</v>
       </c>
       <c r="D22">
-        <v>0.005409929932445268</v>
+        <v>0.03697639903170113</v>
       </c>
       <c r="E22">
-        <v>0.02286753665595675</v>
+        <v>0.03772878180280692</v>
       </c>
       <c r="F22">
-        <v>4.467507200298087</v>
+        <v>2.136499610525831</v>
       </c>
       <c r="G22">
-        <v>0.0008413769224578154</v>
+        <v>0.2023312524911134</v>
       </c>
       <c r="H22">
-        <v>0.01385314199855503</v>
+        <v>0.007604310219801846</v>
       </c>
       <c r="I22">
-        <v>0.02249894704759203</v>
+        <v>0.0124505047785286</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.825272633855917</v>
+        <v>1.175600767580143</v>
       </c>
       <c r="L22">
-        <v>0.09526413955385493</v>
+        <v>0.4005483051584307</v>
       </c>
       <c r="M22">
-        <v>1.844489716037288</v>
+        <v>0.4814383584825066</v>
       </c>
       <c r="N22">
-        <v>0.3022364760228839</v>
+        <v>0.06440814153592811</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.854378728961507</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3772743899352378</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.6005990992183</v>
+        <v>1.606524667219531</v>
       </c>
       <c r="C23">
-        <v>0.2775088804313839</v>
+        <v>0.2946500717773404</v>
       </c>
       <c r="D23">
-        <v>0.005501694943241375</v>
+        <v>0.02797719479644201</v>
       </c>
       <c r="E23">
-        <v>0.02195621507829415</v>
+        <v>0.03466675027941513</v>
       </c>
       <c r="F23">
-        <v>4.361682932917489</v>
+        <v>2.261197321759838</v>
       </c>
       <c r="G23">
-        <v>0.0008433417567851818</v>
+        <v>0.1378356822229776</v>
       </c>
       <c r="H23">
-        <v>0.01573132624407381</v>
+        <v>0.008460183125001658</v>
       </c>
       <c r="I23">
-        <v>0.02473715499221374</v>
+        <v>0.01319017372679276</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.763765773609677</v>
+        <v>1.259926340164</v>
       </c>
       <c r="L23">
-        <v>0.09217068781772753</v>
+        <v>0.4331587068838232</v>
       </c>
       <c r="M23">
-        <v>1.776401917683387</v>
+        <v>0.5109897848366245</v>
       </c>
       <c r="N23">
-        <v>0.291347154297668</v>
+        <v>0.06446959303150024</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.805215638451358</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3647870246206821</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.373811014666074</v>
+        <v>1.346628433174089</v>
       </c>
       <c r="C24">
-        <v>0.235177643059771</v>
+        <v>0.3014679873401178</v>
       </c>
       <c r="D24">
-        <v>0.00573920173646103</v>
+        <v>0.01018268362951602</v>
       </c>
       <c r="E24">
-        <v>0.01860600390405587</v>
+        <v>0.02651064736101283</v>
       </c>
       <c r="F24">
-        <v>3.933659732752147</v>
+        <v>2.507554478407101</v>
       </c>
       <c r="G24">
-        <v>0.0008509760468052956</v>
+        <v>0.05887157314040525</v>
       </c>
       <c r="H24">
-        <v>0.02415241727760131</v>
+        <v>0.01250558739400837</v>
       </c>
       <c r="I24">
-        <v>0.0353023994009245</v>
+        <v>0.01754883670625684</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.509001235073001</v>
+        <v>1.445869391186562</v>
       </c>
       <c r="L24">
-        <v>0.07993152566495709</v>
+        <v>0.5148857052971536</v>
       </c>
       <c r="M24">
-        <v>1.522175931891724</v>
+        <v>0.5658125430368983</v>
       </c>
       <c r="N24">
-        <v>0.2515656218407258</v>
+        <v>0.06226776340583129</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.591489603713484</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3177146536330753</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.131567946235833</v>
+        <v>1.105301248750806</v>
       </c>
       <c r="C25">
-        <v>0.1914978706991803</v>
+        <v>0.2479943449523603</v>
       </c>
       <c r="D25">
-        <v>0.005954108697330929</v>
+        <v>0.007350416954867711</v>
       </c>
       <c r="E25">
-        <v>0.01512992738318175</v>
+        <v>0.02262417775318504</v>
       </c>
       <c r="F25">
-        <v>3.475383505082874</v>
+        <v>2.29364060110683</v>
       </c>
       <c r="G25">
-        <v>0.0008595159659649578</v>
+        <v>0.07395620604058406</v>
       </c>
       <c r="H25">
-        <v>0.03568037119856537</v>
+        <v>0.0191066437904277</v>
       </c>
       <c r="I25">
-        <v>0.0495248721030972</v>
+        <v>0.02485095873895915</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.234871394311654</v>
+        <v>1.34895966510031</v>
       </c>
       <c r="L25">
-        <v>0.06693262086799123</v>
+        <v>0.4992927839360704</v>
       </c>
       <c r="M25">
-        <v>1.252241775714538</v>
+        <v>0.5083019968893439</v>
       </c>
       <c r="N25">
-        <v>0.2092425093700427</v>
+        <v>0.05523039138657637</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.308116354250302</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2653354647197119</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
